--- a/test-css目錄.xlsx
+++ b/test-css目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html_css_php\html\megan-html-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A41295B-66DA-4A39-AB9E-66D482976F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921D7F2-B486-4556-A036-BD9FE39BB3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>header-ctn</t>
   </si>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>點圖片，回到首頁：設 a tag 放img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設 class="cr-main"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +367,14 @@
   <si>
     <t>padding: 5px  文字垂直置中 
 margin: 5px; 會造成整個格子下移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘記設定iframe 寬高100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設 class="cr-main-iframe"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -783,7 +787,7 @@
     <row r="1" spans="2:6" s="2" customFormat="1" ht="32.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="14"/>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
@@ -797,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.5">
@@ -811,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.5">
@@ -822,12 +826,12 @@
         <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.5">
@@ -846,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.5">
@@ -854,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.5">
@@ -862,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.5">
@@ -881,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
@@ -895,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.5">
@@ -903,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.5">
@@ -920,7 +924,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.5">
@@ -931,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.5">
@@ -939,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.5">
@@ -947,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.5">
@@ -955,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.5">
@@ -969,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.5">
@@ -977,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30.9" x14ac:dyDescent="0.5">
@@ -985,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.5">
@@ -996,7 +1000,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.5">
@@ -1008,7 +1012,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.5">
@@ -1016,7 +1020,10 @@
         <v>24</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.5">
@@ -1035,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.5">
@@ -1048,7 +1055,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>27</v>
@@ -1059,34 +1066,34 @@
         <v>11</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.5">
       <c r="D36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B37" s="5"/>
       <c r="D37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>17</v>
@@ -1095,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.5">
@@ -1103,12 +1110,12 @@
         <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C43" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
@@ -1119,47 +1126,47 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C44" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C45" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C46" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C49" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.5">
@@ -1167,66 +1174,66 @@
         <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E52" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E54" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="62.6" x14ac:dyDescent="0.5">
       <c r="E55" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E58" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="31.75" x14ac:dyDescent="0.5">
       <c r="E60" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="E62" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E63" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/test-css目錄.xlsx
+++ b/test-css目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html_css_php\html\megan-html-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921D7F2-B486-4556-A036-BD9FE39BB3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FBD3C-A249-4D42-81E4-6BEDB68CEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,26 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>容易忘記</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img class指定錯誤：只有一組 可設a&gt;img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header-linkImg&gt;img 指定失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img設長寬太麻煩，改設比例可變小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要用外層容器  置中img：使用父容器和文本對齊方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>底線：text-decoration: underline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,16 +345,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>要用外層容器  置中圖片img：使用父容器和文本對齊方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img 設比例：設長寬太麻煩，改設比例可變小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img 指定錯誤class：只有一組 可設a&gt;img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header-linkImg&gt;img 指定失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>padding: 5px  文字垂直置中 
-margin: 5px; 會造成整個格子下移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘記設定iframe 寬高100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設 class="cr-main-iframe"</t>
+margin: 5px  會讓整個格子下移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右忘記設定iframe 寬高100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設 class="cr-iframe-main"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易忘記設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -787,7 +787,7 @@
     <row r="1" spans="2:6" s="2" customFormat="1" ht="32.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="14"/>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
@@ -804,7 +804,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.5">
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.5">
@@ -826,12 +826,12 @@
         <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.5">
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.5">
@@ -910,7 +910,7 @@
         <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.5">
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.5">
@@ -992,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.5">
@@ -1023,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.5">
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.5">

--- a/test-css目錄.xlsx
+++ b/test-css目錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html_css_php\html\megan-html-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FBD3C-A249-4D42-81E4-6BEDB68CEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC06D1-A185-48AF-9294-E928BD451B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,113 +268,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. menu-flex 設書籤/內部連結 #id</t>
+    <t>learning.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分三區：header、nav-flex、cr-content-flexDire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. cr-content-flexDire
+10個文字按鈕：設 hover效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容：網頁設計及維護： 02李晏如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格式：標楷  fz 16   col #000000  置中 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格式：標楷  fz 16  col #000000  置中 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格式：標楷  fz 24  粗體  斜體  col #0000FF  置中 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：標楷  fz 24  底線  col #FF00FF  置中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式：標楷  fz 16   col #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分兩區：1個ctn-&lt;header&gt;+1個box&lt;div&gt;
+div 設 class="header-linkImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底線：text-decoration: underline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a tag 忘記設class=item-link </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六個選項文字置中，div設定padding，不設在外層容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要用外層容器  置中圖片img：使用父容器和文本對齊方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img 設比例：設長寬太麻煩，改設比例可變小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img 指定錯誤class：只有一組 可設a&gt;img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header-linkImg&gt;img 指定失敗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding: 5px  文字垂直置中 
+margin: 5px  會讓整個格子下移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右忘記設定iframe 寬高100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設 class="cr-iframe-main"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易忘記設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. menu-flex-bookmark 設書籤/內部連結 #id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4. cr-content-flexWrap
 cr-title
 cr-date 設#id
-cr-top + a tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learning.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分三區：header、nav-flex、cr-content-flexDire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. cr-content-flexDire
-10個文字按鈕：設 hover效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>footer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容：網頁設計及維護： 02李晏如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">格式：標楷  fz 16   col #000000  置中 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">格式：標楷  fz 16  col #000000  置中 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">格式：標楷  fz 24  粗體  斜體  col #0000FF  置中 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式：標楷  fz 24  底線  col #FF00FF  置中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式：標楷  fz 16   col #000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分兩區：1個ctn-&lt;header&gt;+1個box&lt;div&gt;
-div 設 class="header-linkImg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底線：text-decoration: underline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a tag 忘記設class=item-link </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六個選項文字置中，div設定padding，不設在外層容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要用外層容器  置中圖片img：使用父容器和文本對齊方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img 設比例：設長寬太麻煩，改設比例可變小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img 指定錯誤class：只有一組 可設a&gt;img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header-linkImg&gt;img 指定失敗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>padding: 5px  文字垂直置中 
-margin: 5px  會讓整個格子下移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右忘記設定iframe 寬高100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>設 class="cr-iframe-main"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容易忘記設定</t>
+cr-top + a tag to #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
@@ -787,7 +787,7 @@
     <row r="1" spans="2:6" s="2" customFormat="1" ht="32.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="14"/>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.5">
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.5">
@@ -826,12 +826,12 @@
         <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.5">
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.5">
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.5">
@@ -907,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.5">
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.5">
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.5">
@@ -992,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.5">
@@ -1023,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.5">
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.5">
@@ -1088,12 +1088,12 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>17</v>
@@ -1110,7 +1110,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.5">
@@ -1189,20 +1189,20 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E54" s="5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="62.6" x14ac:dyDescent="0.5">
       <c r="E55" s="9" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.5">
       <c r="C57" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.5">
@@ -1217,23 +1217,23 @@
     </row>
     <row r="60" spans="2:5" ht="31.75" x14ac:dyDescent="0.5">
       <c r="E60" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.5">
       <c r="E63" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/test-css目錄.xlsx
+++ b/test-css目錄.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html_css_php\html\megan-html-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\html\megan-html-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC06D1-A185-48AF-9294-E928BD451B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16668" windowHeight="8748"/>
   </bookViews>
   <sheets>
     <sheet name="丙級-術科第一題" sheetId="1" r:id="rId1"/>
@@ -260,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分四大區3小區：header、nav-flex、cr-content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. nav-flex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +359,6 @@
   </si>
   <si>
     <t>容易忘記設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. menu-flex-bookmark 設書籤/內部連結 #id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,11 +368,19 @@
 cr-top + a tag to #</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>分四大區3小項：header、nav-flex、 menu-flex-bookmark    cr-content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. menu-flex-bookmark    設書籤/內部連結 #id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,31 +765,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.25" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="5"/>
+    <col min="5" max="5" width="74.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="48.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="2" customFormat="1" ht="32.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" s="2" customFormat="1" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="14"/>
       <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="31.8" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
@@ -801,13 +800,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -815,10 +814,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -826,15 +825,15 @@
         <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="F5" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -845,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D8" s="3">
         <v>1</v>
       </c>
@@ -853,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D9" s="3">
         <v>2</v>
       </c>
@@ -861,7 +860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D10" s="3">
         <v>3</v>
       </c>
@@ -869,10 +868,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -880,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
@@ -888,7 +887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="31.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:6" ht="31.8" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
@@ -899,24 +898,24 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -927,7 +926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C18" s="10" t="s">
         <v>7</v>
       </c>
@@ -935,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D19" s="3">
         <v>2</v>
       </c>
@@ -946,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D20" s="3">
         <v>3</v>
       </c>
@@ -954,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
@@ -962,10 +961,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
@@ -973,10 +972,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
         <v>13</v>
       </c>
@@ -984,7 +983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="30.9" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" ht="31.2" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
         <v>14</v>
       </c>
@@ -992,10 +991,10 @@
         <v>42</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1023,10 +1022,10 @@
         <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="12" t="s">
         <v>26</v>
       </c>
@@ -1042,10 +1041,10 @@
         <v>24</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="D37" s="3" t="s">
         <v>35</v>
@@ -1086,14 +1085,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E38" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>17</v>
@@ -1105,15 +1104,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C43" s="12" t="s">
         <v>45</v>
       </c>
@@ -1124,7 +1123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" s="13" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" s="10" t="s">
         <v>53</v>
       </c>
@@ -1151,17 +1150,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E47" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C49" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C50" s="12" t="s">
         <v>59</v>
       </c>
@@ -1169,71 +1168,71 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D51" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E52" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E53" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E54" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="63" x14ac:dyDescent="0.35">
+      <c r="E55" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C57" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="E54" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="62.6" x14ac:dyDescent="0.5">
-      <c r="E55" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="C57" s="12" t="s">
+      <c r="E57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E58" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E59" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="31.75" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="31.8" x14ac:dyDescent="0.35">
       <c r="E60" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="E62" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="5" t="s">
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.5">
-      <c r="E63" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
